--- a/src/capitulo_2.xlsx
+++ b/src/capitulo_2.xlsx
@@ -8,54 +8,146 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rireis\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43385288-513C-40C3-B754-784CB842BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D41E90-6134-4864-A575-A6A2A1A0A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2505" windowWidth="15375" windowHeight="7875" xr2:uid="{B507F641-F395-4803-85F4-F8D737CEE9AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B507F641-F395-4803-85F4-F8D737CEE9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="2" r:id="rId1"/>
     <sheet name="Exercícios 2.1 - 7" sheetId="1" r:id="rId2"/>
+    <sheet name="Exercícios 2.1 - 8" sheetId="3" r:id="rId3"/>
+    <sheet name="Exercícios 2.1 - 9" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$H$6:$I$6</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$H$6:$K$6</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$H$6:$I$6</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$11</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$12</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$13</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$13</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$14</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$15</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$16</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$16</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$H$7</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$H$7</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$H$7</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$11</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$12</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$12</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$13</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$13</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$14</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$14</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$15</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$16</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$16</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Função</t>
   </si>
@@ -132,13 +224,52 @@
   </si>
   <si>
     <t>Exercícios resolvidos do livro: Pesquisa Operacional na Tomada de Decisões (Gerson Lachtermacher)</t>
+  </si>
+  <si>
+    <t>Max Z = 60x1 + 40x2 + 60x3 + 40x4</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>10x1 + 10x2 &lt;= 100</t>
+  </si>
+  <si>
+    <t>3x3 + 7x4 &lt;= 42</t>
+  </si>
+  <si>
+    <t>x3&gt;=0</t>
+  </si>
+  <si>
+    <t>x4 &gt;=0</t>
+  </si>
+  <si>
+    <t>Min Z = 0,06x1 +0,08x2</t>
+  </si>
+  <si>
+    <t>Guaraná</t>
+  </si>
+  <si>
+    <t>Cafeína</t>
+  </si>
+  <si>
+    <t>8x1 +  6x2 &gt;= 48</t>
+  </si>
+  <si>
+    <t>x1 + 2x2 &gt;= 12</t>
+  </si>
+  <si>
+    <t>x1 + 2x2 &lt;= 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +281,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -498,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EBC2B6-DD08-4B96-83E3-B8ECCE6554E8}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -710,4 +847,497 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735FFA30-F612-4323-9B64-FF7E8C925E25}">
+  <dimension ref="B3:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>60</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(H5*H6)+(I5*I6)+(J5*J6)+(K5*K6)</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>(H11*H6)+(I11*I6)+(J11*J6)+(K11*K6)</f>
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <f>(H12*H6)+(I12*I6)+(J12*J6)+(K12*K6)</f>
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>(H13*H6)+(I13*I6)+(J13*J6)+(K13*K6)</f>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>(H14*H6)+(I14*I6)+(J14*J6)+(K14*K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>(H15*H6)+(I15*I6)+(J15*J6)+(K15*K6)</f>
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>(H16*H6)+(I16*I6)+(J16*J6)+(K16*K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44254340-ECF6-4E79-B1EE-BF5512E7A97C}">
+  <dimension ref="B3:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <v>0.06</v>
+      </c>
+      <c r="I5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="I6">
+        <v>4.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(H5*H6)+(I5*I6)</f>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <f>(H11*H6)+(I11*I6)</f>
+        <v>48</v>
+      </c>
+      <c r="K11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>(H12*H6)+(I12*I6)</f>
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>(H13*H6)+(I13*I6)</f>
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/src/capitulo_2.xlsx
+++ b/src/capitulo_2.xlsx
@@ -8,143 +8,189 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rireis\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D41E90-6134-4864-A575-A6A2A1A0A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C6CCD-AC8E-40B8-9E91-F85C5A894BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B507F641-F395-4803-85F4-F8D737CEE9AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{B507F641-F395-4803-85F4-F8D737CEE9AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="2" r:id="rId1"/>
     <sheet name="Exercícios 2.1 - 7" sheetId="1" r:id="rId2"/>
     <sheet name="Exercícios 2.1 - 8" sheetId="3" r:id="rId3"/>
     <sheet name="Exercícios 2.1 - 9" sheetId="4" r:id="rId4"/>
+    <sheet name="Exercícios 2.1 - 10" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$H$6:$I$6</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$H$6:$I$6</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$H$6:$K$6</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$H$6:$I$6</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$11</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$11</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$12</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$12</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$12</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$13</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$13</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$13</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$13</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$14</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$J$14</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$14</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$14</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$15</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$15</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$15</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$J$16</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$L$16</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$J$16</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$H$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$H$7</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$H$7</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$H$7</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$11</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$11</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$12</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$12</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$12</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$13</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$13</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$13</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$14</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Exercícios 2.1 - 7'!$K$14</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$14</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$15</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$15</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">'Exercícios 2.1 - 10'!$K$16</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">'Exercícios 2.1 - 8'!$M$16</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Exercícios 2.1 - 9'!$K$16</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
@@ -167,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t>Função</t>
   </si>
@@ -263,6 +309,18 @@
   </si>
   <si>
     <t>x1 + 2x2 &lt;= 20</t>
+  </si>
+  <si>
+    <t>Max Z = 0,12x1 +0,35x2</t>
+  </si>
+  <si>
+    <t>x1 + x2 &lt;= 70000</t>
+  </si>
+  <si>
+    <t>0,4x1 +0,2x2 &lt;= 30000</t>
+  </si>
+  <si>
+    <t>x2 &gt;= 0</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44254340-ECF6-4E79-B1EE-BF5512E7A97C}">
   <dimension ref="B3:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1340,4 +1398,206 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902D931C-A26F-4D2A-9230-FDB317525424}">
+  <dimension ref="B3:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5">
+        <v>0.12</v>
+      </c>
+      <c r="I5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f>(H5*H6)+(I5*I6)</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <f>(H11*H6)+(I11*I6)</f>
+        <v>70000</v>
+      </c>
+      <c r="K11">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+      <c r="J12">
+        <f>(H12*H6)+(I12*I6)</f>
+        <v>14000</v>
+      </c>
+      <c r="K12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>(H13*H6)+(I13*I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>(H14*H6)+(I14*I7)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>